--- a/ExcelFormattingTask.xlsx
+++ b/ExcelFormattingTask.xlsx
@@ -923,8 +923,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29AF588C-2D15-4368-A722-B36F11D544E9}">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="56" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C18" zoomScale="77" zoomScaleNormal="41" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
